--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurih\Documents\Atividade de Extensão\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurih\Documents\Extension-Activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99C5F67-CFD0-420B-BD11-44C5E790618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBD7ECA-6DA1-470C-8F6B-9B2C7A1D4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -252,9 +252,6 @@
     </r>
   </si>
   <si>
-    <t>CRONOGRAMA DO PROJETO DE EXTENSÃO WEB_TECH</t>
-  </si>
-  <si>
     <t>ABRIL</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Entrega do Projeto</t>
+  </si>
+  <si>
+    <t>CRONOGRAMA DO PROJETO DE EXTENSÃO WEB/MOBILE_TECH</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -523,12 +523,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,88 +575,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -945,72 +942,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="24"/>
+      <c r="B1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4">
@@ -1043,24 +1040,24 @@
       <c r="L3" s="4">
         <v>4</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="13">
         <v>5</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4">
         <v>1</v>
       </c>
@@ -1091,30 +1088,32 @@
       <c r="L4" s="4">
         <v>10</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="13">
         <v>11</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1123,26 +1122,28 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1151,27 +1152,29 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1179,27 +1182,28 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1207,27 +1211,29 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1235,26 +1241,28 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1263,27 +1271,29 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1291,27 +1301,29 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1319,18 +1331,18 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1338,7 +1350,9 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="36" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1347,18 +1361,18 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1366,7 +1380,9 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="36" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1375,18 +1391,18 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1394,27 +1410,29 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="D15" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1422,27 +1440,31 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1452,25 +1474,25 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1481,24 +1503,24 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1512,83 +1534,83 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
     </row>
     <row r="21" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
     </row>
     <row r="22" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1598,25 +1620,25 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1626,25 +1648,25 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1654,25 +1676,25 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1682,244 +1704,218 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
     </row>
     <row r="31" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
     </row>
     <row r="32" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
     </row>
     <row r="33" spans="3:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:D2"/>
@@ -1929,6 +1925,21 @@
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurih\Documents\Extension-Activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBD7ECA-6DA1-470C-8F6B-9B2C7A1D4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CE160-599D-486F-8E8A-8C8D4E3BD458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,14 +312,8 @@
         <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -461,21 +455,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -544,17 +523,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -564,60 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -942,72 +909,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="39"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
     </row>
     <row r="3" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4">
@@ -1056,8 +1023,8 @@
       <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="4">
         <v>1</v>
       </c>
@@ -1104,10 +1071,10 @@
       <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1136,10 +1103,10 @@
       <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
         <v>4</v>
@@ -1166,10 +1133,10 @@
       <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
         <v>4</v>
@@ -1196,10 +1163,10 @@
       <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -1225,10 +1192,10 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>4</v>
@@ -1255,10 +1222,10 @@
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
         <v>4</v>
@@ -1285,15 +1252,15 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1315,10 +1282,10 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
         <v>4</v>
@@ -1350,7 +1317,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="7"/>
@@ -1380,7 +1347,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="7"/>
@@ -1410,7 +1377,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="8"/>
@@ -1440,10 +1407,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="8"/>
@@ -1474,7 +1441,9 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1503,8 +1472,12 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1551,16 +1524,18 @@
       <c r="X19" s="12"/>
     </row>
     <row r="20" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1579,20 +1554,30 @@
       <c r="X20" s="12"/>
     </row>
     <row r="21" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="H21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="M21" s="14"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -1607,10 +1592,10 @@
       <c r="X21" s="12"/>
     </row>
     <row r="22" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1635,10 +1620,10 @@
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1648,8 +1633,12 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="15"/>
+      <c r="L23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -1663,10 +1652,10 @@
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1676,7 +1665,9 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="18"/>
+      <c r="L24" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="M24" s="14"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -1691,10 +1682,10 @@
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1704,8 +1695,12 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="15"/>
+      <c r="L25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
@@ -1719,21 +1714,23 @@
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
@@ -1916,6 +1913,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:D2"/>
@@ -1925,22 +1937,8 @@
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>